--- a/market/javascript/Abstractatech.JavaScript.LocalStorageExtensions/Abstractatech.JavaScript.LocalStorageExtensions/Book1.xlsx
+++ b/market/javascript/Abstractatech.JavaScript.LocalStorageExtensions/Abstractatech.JavaScript.LocalStorageExtensions/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="1" state="visible" r:id="rId2"/>
@@ -79,7 +79,7 @@
     <t>£115</t>
   </si>
   <si>
-    <t>Timestamp</t>
+    <t>Timestamp1</t>
   </si>
   <si>
     <t>Activity</t>
@@ -200,15 +200,15 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="D9" activeCellId="0" pane="topLeft" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.62745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.278431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1019607843137"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2039215686275"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.84705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="1" s="1">
@@ -416,14 +416,14 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B7" activeCellId="0" pane="topLeft" sqref="B7"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B8" activeCellId="0" pane="topLeft" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9725490196078"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.8470588235294"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.2745098039216"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.84705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="1" s="1">
@@ -465,7 +465,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.84705882352941"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/market/javascript/Abstractatech.JavaScript.LocalStorageExtensions/Abstractatech.JavaScript.LocalStorageExtensions/Book1.xlsx
+++ b/market/javascript/Abstractatech.JavaScript.LocalStorageExtensions/Abstractatech.JavaScript.LocalStorageExtensions/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
-    <t>Tag</t>
+    <t>Tagx</t>
   </si>
   <si>
     <t>Description</t>
@@ -200,18 +200,18 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D9" activeCellId="0" pane="topLeft" sqref="D9"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C13" activeCellId="0" pane="topLeft" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2039215686275"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.84705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3098039215686"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.93725490196078"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="1" s="1">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1" s="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,14 +416,14 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B8" activeCellId="0" pane="topLeft" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.2745098039216"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.84705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.6980392156863"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.93725490196078"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="1" s="1">
@@ -465,7 +465,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.84705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.93725490196078"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
